--- a/QALD9-Plus-testing/zero-shot-entity-aligned/zero-shot-entity-aligned-dbpedia-wikidata/zero_shot_entity_aligned_llama_dbpedia_wikidata_results_comparison.xlsx
+++ b/QALD9-Plus-testing/zero-shot-entity-aligned/zero-shot-entity-aligned-dbpedia-wikidata/zero_shot_entity_aligned_llama_dbpedia_wikidata_results_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,11 +508,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/statement/q40984-f1596a64-4f1a-4a9c-451e-fdf4a9fa78dd']</t>
+          <t>['http://www.wikidata.org/entity/Q246125']</t>
         </is>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -538,41 +538,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Who developed Minecraft?</t>
+          <t>When was Olof Palme shot?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1129295', 'http://www.wikidata.org/entity/Q2283']</t>
+          <t>['http://www.wikidata.org/entity/statement/q53713-5CBE6C03-5BB4-44B8-A01F-639E1678F280']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1129295', 'http://www.wikidata.org/entity/Q2283']</t>
+          <t>['1986-02-28T00:00:00Z']</t>
         </is>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Give me the runtime of Toy Story.</t>
+          <t>For which label did Elvis record his first album?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>['http://www.wikidata.org/entity/Q202585']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>['http://www.wikidata.org/entity/Q3415083']</t>
         </is>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -598,17 +598,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>How high is the Yokohama Marine Tower?</t>
+          <t>Who was the doctoral supervisor of Albert Einstein?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['101']</t>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['101']</t>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -618,17 +618,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>What is the highest mountain in Italy?</t>
+          <t>What is Donald Trump's main business?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q102174232']</t>
+          <t>['http://www.wikidata.org/entity/Q2462124']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3506451']</t>
+          <t>['http://www.wikidata.org/entity/Q115934307', 'http://www.wikidata.org/entity/Q123134707', 'http://www.wikidata.org/entity/Q123352703', 'http://www.wikidata.org/entity/Q1262898', 'http://www.wikidata.org/entity/Q18011281', 'http://www.wikidata.org/entity/Q20714076', 'http://www.wikidata.org/entity/Q286493', 'http://www.wikidata.org/entity/Q54869832', 'http://www.wikidata.org/entity/Q60789091', 'http://www.wikidata.org/entity/Q7847774', 'http://www.wikidata.org/entity/Q844324']</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -638,37 +638,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>What is Donald Trump's main business?</t>
+          <t>Who is the author of the interpretation of dreams?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q2462124']</t>
+          <t>['http://www.wikidata.org/entity/Q9215']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q115934307', 'http://www.wikidata.org/entity/Q123134707', 'http://www.wikidata.org/entity/Q123352703', 'http://www.wikidata.org/entity/Q1262898', 'http://www.wikidata.org/entity/Q18011281', 'http://www.wikidata.org/entity/Q20714076', 'http://www.wikidata.org/entity/Q286493', 'http://www.wikidata.org/entity/Q54869832', 'http://www.wikidata.org/entity/Q60789091', 'http://www.wikidata.org/entity/Q7847774', 'http://www.wikidata.org/entity/Q844324']</t>
+          <t>['http://www.wikidata.org/entity/Q9215']</t>
         </is>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>How many people live in Eurasia?</t>
+          <t>When was John Adams born?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['5348554000']</t>
+          <t>['1735-10-30T00:00:00Z']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['5348554000']</t>
+          <t>['1735-10-30T00:00:00Z']</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -678,17 +678,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Who is the author of the interpretation of dreams?</t>
+          <t>how much is the total population of european union?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q9215']</t>
+          <t>['447706209']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q9215']</t>
+          <t>['447706209']</t>
         </is>
       </c>
       <c r="D13" t="b">
@@ -748,7 +748,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/statement/Q567-0ae62197-49e4-06fe-445e-fb919c006224', 'http://www.wikidata.org/entity/statement/q567-4B6CD1BC-80CB-4356-BD73-10B52A81364C', 'http://www.wikidata.org/entity/statement/Q567-82c164a5-4c3d-6db2-b720-4693755c8f9a', 'http://www.wikidata.org/entity/statement/Q567-d2f1c5fa-43df-0f2c-dd6f-b6c9efdcbe5e']</t>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -758,37 +758,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Where was JFK assassinated?</t>
+          <t>What is the second highest mountain on Earth?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3896131']</t>
+          <t>['http://www.wikidata.org/entity/Q5159490']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3896131']</t>
+          <t>['http://www.wikidata.org/entity/Q81924287']</t>
         </is>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Which river does the Brooklyn Bridge cross?</t>
+          <t>In which country is Mecca located?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q212862']</t>
+          <t>['http://www.wikidata.org/entity/Q851']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q212862']</t>
+          <t>['http://www.wikidata.org/entity/Q851']</t>
         </is>
       </c>
       <c r="D18" t="b">
@@ -798,17 +798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>What was the last movie with Alec Guinness?</t>
+          <t>How tall is Claudia Schiffer?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q6074']</t>
+          <t>['180']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q6074']</t>
+          <t>['180']</t>
         </is>
       </c>
       <c r="D19" t="b">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>How many children did Benjamin Franklin have?</t>
+          <t>Who wrote the book The Pillars of the Earth?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://www.wikidata.org/entity/Q210669']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://www.wikidata.org/entity/Q210669']</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -838,17 +838,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>How tall is Claudia Schiffer?</t>
+          <t>What kind of music did Lou Reed play?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['180']</t>
+          <t>['http://www.wikidata.org/entity/Q11366', 'http://www.wikidata.org/entity/Q11399', 'http://www.wikidata.org/entity/Q1428637', 'http://www.wikidata.org/entity/Q1641839', 'http://www.wikidata.org/entity/Q181861', 'http://www.wikidata.org/entity/Q186472', 'http://www.wikidata.org/entity/Q206159', 'http://www.wikidata.org/entity/Q217467', 'http://www.wikidata.org/entity/Q27190', 'http://www.wikidata.org/entity/Q650316', 'http://www.wikidata.org/entity/Q76092', 'http://www.wikidata.org/entity/Q885561']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['180']</t>
+          <t>['http://www.wikidata.org/entity/Q11366', 'http://www.wikidata.org/entity/Q11399', 'http://www.wikidata.org/entity/Q1428637', 'http://www.wikidata.org/entity/Q1641839', 'http://www.wikidata.org/entity/Q181861', 'http://www.wikidata.org/entity/Q186472', 'http://www.wikidata.org/entity/Q206159', 'http://www.wikidata.org/entity/Q217467', 'http://www.wikidata.org/entity/Q27190', 'http://www.wikidata.org/entity/Q650316', 'http://www.wikidata.org/entity/Q76092', 'http://www.wikidata.org/entity/Q885561']</t>
         </is>
       </c>
       <c r="D21" t="b">
@@ -858,17 +858,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>What kind of music did Lou Reed play?</t>
+          <t>Which city has the least inhabitants?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q11366', 'http://www.wikidata.org/entity/Q11399', 'http://www.wikidata.org/entity/Q1428637', 'http://www.wikidata.org/entity/Q1641839', 'http://www.wikidata.org/entity/Q181861', 'http://www.wikidata.org/entity/Q186472', 'http://www.wikidata.org/entity/Q206159', 'http://www.wikidata.org/entity/Q217467', 'http://www.wikidata.org/entity/Q27190', 'http://www.wikidata.org/entity/Q650316', 'http://www.wikidata.org/entity/Q76092', 'http://www.wikidata.org/entity/Q885561']</t>
+          <t>['http://www.wikidata.org/entity/Q2590944']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q11366', 'http://www.wikidata.org/entity/Q11399', 'http://www.wikidata.org/entity/Q1428637', 'http://www.wikidata.org/entity/Q1641839', 'http://www.wikidata.org/entity/Q181861', 'http://www.wikidata.org/entity/Q186472', 'http://www.wikidata.org/entity/Q206159', 'http://www.wikidata.org/entity/Q217467', 'http://www.wikidata.org/entity/Q27190', 'http://www.wikidata.org/entity/Q650316', 'http://www.wikidata.org/entity/Q76092', 'http://www.wikidata.org/entity/Q885561']</t>
+          <t>['http://www.wikidata.org/entity/Q2590944']</t>
         </is>
       </c>
       <c r="D22" t="b">
@@ -878,17 +878,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Which city has the least inhabitants?</t>
+          <t>In which country is the Limerick Lake?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q2590944']</t>
+          <t>['http://www.wikidata.org/entity/Q16']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q2590944']</t>
+          <t>['http://www.wikidata.org/entity/Q16']</t>
         </is>
       </c>
       <c r="D23" t="b">
@@ -898,37 +898,37 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>What is the net income of Apple?</t>
+          <t>How tall is Michael Jordan?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['96995000000']</t>
+          <t>['198']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['96995000000']</t>
+          <t>['http://www.wikidata.org/entity/statement/Q41421-b9b2d0df-4fc4-4d44-fc89-60c1eac18294']</t>
         </is>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Where did Abraham Lincoln die?</t>
+          <t>Who designed the Brooklyn Bridge?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+          <t>['http://www.wikidata.org/entity/Q77237']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+          <t>['http://www.wikidata.org/entity/Q77237']</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,57 +938,57 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Give me the capitals of all countries that the Himalayas run through.</t>
+          <t>What is the birth name of Adele?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1362', 'http://www.wikidata.org/entity/Q3037', 'http://www.wikidata.org/entity/Q37400', 'http://www.wikidata.org/entity/Q5838', 'http://www.wikidata.org/entity/Q9270', 'http://www.wikidata.org/entity/Q956', 'http://www.wikidata.org/entity/Q987']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1362', 'http://www.wikidata.org/entity/Q3037', 'http://www.wikidata.org/entity/Q3630', 'http://www.wikidata.org/entity/Q37400', 'http://www.wikidata.org/entity/Q5838', 'http://www.wikidata.org/entity/Q9270', 'http://www.wikidata.org/entity/Q956', 'http://www.wikidata.org/entity/Q987']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>how much is the population Iraq?</t>
+          <t>Give me all people that were born in Vienna and died in Berlin.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['38274618']</t>
+          <t>['http://www.wikidata.org/entity/Q95199838', 'http://www.wikidata.org/entity/Q55451835', 'http://www.wikidata.org/entity/Q19966956', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q96452', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q24078', 'http://www.wikidata.org/entity/Q1441046', 'http://www.wikidata.org/entity/Q16563052', 'http://www.wikidata.org/entity/Q87735', 'http://www.wikidata.org/entity/Q111031308', 'http://www.wikidata.org/entity/Q125347249', 'http://www.wikidata.org/entity/Q112469746', 'http://www.wikidata.org/entity/Q15436531', 'http://www.wikidata.org/entity/Q1468949', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q5946570', 'http://www.wikidata.org/entity/Q43382717', 'http://www.wikidata.org/entity/Q85051', 'http://www.wikidata.org/entity/Q78934', 'http://www.wikidata.org/entity/Q697055', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q96452', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q55682962', 'http://www.wikidata.org/entity/Q12028148', 'http://www.wikidata.org/entity/Q19309506', 'http://www.wikidata.org/entity/Q78793', 'http://www.wikidata.org/entity/Q2173626', 'http://www.wikidata.org/entity/Q51844338', 'http://www.wikidata.org/entity/Q61199008', 'http://www.wikidata.org/entity/Q94743563']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['38274618']</t>
+          <t>['http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q112469746', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1468949', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15436531', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1692321', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q43382717', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q5946570', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q697055', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q78934', 'http://www.wikidata.org/entity/Q78936', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q85051', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q94836008', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q95896169', 'http://www.wikidata.org/entity/Q96452']</t>
         </is>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Who designed the Brooklyn Bridge?</t>
+          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q77237']</t>
+          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q77237']</t>
+          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
         </is>
       </c>
       <c r="D28" t="b">
@@ -998,17 +998,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Who wrote the Game of Thrones theme?</t>
+          <t>What is the capital of Cameroon?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q57577']</t>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q57577']</t>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
         </is>
       </c>
       <c r="D29" t="b">
@@ -1018,180 +1018,100 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Give me all movies directed by Francis Ford Coppola.</t>
+          <t>Who created Family Guy?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1196157', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q44408', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
+          <t>['http://www.wikidata.org/entity/Q188492']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
+          <t>['http://www.wikidata.org/entity/Q188492']</t>
         </is>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>What was the first Queen album?</t>
+          <t>How much is the population of mexico city ?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q193490']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q10291462', 'http://www.wikidata.org/entity/Q10356069', 'http://www.wikidata.org/entity/Q1038880', 'http://www.wikidata.org/entity/Q105684994', 'http://www.wikidata.org/entity/Q107095983', 'http://www.wikidata.org/entity/Q107102727', 'http://www.wikidata.org/entity/Q107104946', 'http://www.wikidata.org/entity/Q107121713', 'http://www.wikidata.org/entity/Q107126021', 'http://www.wikidata.org/entity/Q107126406', 'http://www.wikidata.org/entity/Q107131861', 'http://www.wikidata.org/entity/Q107141937', 'http://www.wikidata.org/entity/Q107172055', 'http://www.wikidata.org/entity/Q107199175', 'http://www.wikidata.org/entity/Q107214472', 'http://www.wikidata.org/entity/Q1091249', 'http://www.wikidata.org/entity/Q1095572', 'http://www.wikidata.org/entity/Q1188642', 'http://www.wikidata.org/entity/Q13583311', 'http://www.wikidata.org/entity/Q1408347', 'http://www.wikidata.org/entity/Q155593', 'http://www.wikidata.org/entity/Q157719', 'http://www.wikidata.org/entity/Q161212', 'http://www.wikidata.org/entity/Q16999425', 'http://www.wikidata.org/entity/Q1753712', 'http://www.wikidata.org/entity/Q1764609', 'http://www.wikidata.org/entity/Q1765999', 'http://www.wikidata.org/entity/Q193477', 'http://www.wikidata.org/entity/Q193490', 'http://www.wikidata.org/entity/Q19881267', 'http://www.wikidata.org/entity/Q20049168', 'http://www.wikidata.org/entity/Q2011934', 'http://www.wikidata.org/entity/Q210048', 'http://www.wikidata.org/entity/Q211405', 'http://www.wikidata.org/entity/Q21152181', 'http://www.wikidata.org/entity/Q219747', 'http://www.wikidata.org/entity/Q220756', 'http://www.wikidata.org/entity/Q221847', 'http://www.wikidata.org/entity/Q223181', 'http://www.wikidata.org/entity/Q224641', 'http://www.wikidata.org/entity/Q24631635', 'http://www.wikidata.org/entity/Q252817', 'http://www.wikidata.org/entity/Q25575642', 'http://www.wikidata.org/entity/Q270083', 'http://www.wikidata.org/entity/Q27115596', 'http://www.wikidata.org/entity/Q275828', 'http://www.wikidata.org/entity/Q275834', 'http://www.wikidata.org/entity/Q300447', 'http://www.wikidata.org/entity/Q309021', 'http://www.wikidata.org/entity/Q332439', 'http://www.wikidata.org/entity/Q3486024', 'http://www.wikidata.org/entity/Q3685264', 'http://www.wikidata.org/entity/Q3797147', 'http://www.wikidata.org/entity/Q3808239', 'http://www.wikidata.org/entity/Q390295', 'http://www.wikidata.org/entity/Q3927506', 'http://www.wikidata.org/entity/Q3988169', 'http://www.wikidata.org/entity/Q4041341', 'http://www.wikidata.org/entity/Q547117', 'http://www.wikidata.org/entity/Q573716', 'http://www.wikidata.org/entity/Q57655507', 'http://www.wikidata.org/entity/Q5977421', 'http://www.wikidata.org/entity/Q605941', 'http://www.wikidata.org/entity/Q724694', 'http://www.wikidata.org/entity/Q731305', 'http://www.wikidata.org/entity/Q731803', 'http://www.wikidata.org/entity/Q744503', 'http://www.wikidata.org/entity/Q745841', 'http://www.wikidata.org/entity/Q755312', 'http://www.wikidata.org/entity/Q782255', 'http://www.wikidata.org/entity/Q836669', 'http://www.wikidata.org/entity/Q84034437', 'http://www.wikidata.org/entity/Q844785', 'http://www.wikidata.org/entity/Q867842', 'http://www.wikidata.org/entity/Q903337', 'http://www.wikidata.org/entity/Q909400', 'http://www.wikidata.org/entity/Q9357811', 'http://www.wikidata.org/entity/Q948765']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>What is the currency of the Czech Republic?</t>
+          <t>To which countries does the Himalayan mountain system extend?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q131016']</t>
+          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q131016']</t>
+          <t>['http://www.wikidata.org/entity/Q1000', 'http://www.wikidata.org/entity/Q1003588', 'http://www.wikidata.org/entity/Q1003997', 'http://www.wikidata.org/entity/Q1004578', 'http://www.wikidata.org/entity/Q1005', 'http://www.wikidata.org/entity/Q1006', 'http://www.wikidata.org/entity/Q1006293', 'http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q100707543', 'http://www.wikidata.org/entity/Q100728519', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q100873314', 'http://www.wikidata.org/entity/Q100874532', 'http://www.wikidata.org/entity/Q1009', 'http://www.wikidata.org/entity/Q100982791', 'http://www.wikidata.org/entity/Q1010624', 'http://www.wikidata.org/entity/Q101081', 'http://www.wikidata.org/entity/Q1011', 'http://www.wikidata.org/entity/Q1013', 'http://www.wikidata.org/entity/Q1014', 'http://www.wikidata.org/entity/Q1014430', 'http://www.wikidata.org/entity/Q1016', 'http://www.wikidata.org/entity/Q1016336', 'http://www.wikidata.org/entity/Q1016823', 'http://www.wikidata.org/entity/Q1019', 'http://www.wikidata.org/entity/Q1019335', 'http://www.wikidata.org/entity/Q1020', 'http://www.wikidata.org/entity/Q102350', 'http://www.wikidata.org/entity/Q1025', 'http://www.wikidata.org/entity/Q102679', 'http://www.wikidata.org/entity/Q1027', 'http://www.wikidata.org/entity/Q1027828', 'http://www.wikidata.org/entity/Q1028', 'http://www.wikidata.org/entity/Q1028133', 'http://www.wikidata.org/entity/Q1028614', 'http://www.wikidata.org/entity/Q1028835', 'http://www.wikidata.org/entity/Q1028848', 'http://www.wikidata.org/entity/Q10289365', 'http://www.wikidata.org/entity/Q1029', 'http://www.wikidata.org/entity/Q102911', 'http://www.wikidata.org/entity/Q10295972', 'http://www.wikidata.org/entity/Q1029966', 'http://www.wikidata.org/entity/Q1030', 'http://www.wikidata.org/entity/Q1030288', 'http://www.wikidata.org/entity/Q103093', 'http://www.wikidata.org/entity/Q10313', 'http://www.wikidata.org/entity/Q1031430', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q103251', 'http://www.wikidata.org/entity/Q1033', 'http://www.wikidata.org/entity/Q1034173', 'http://www.wikidata.org/entity/Q10359001', 'http://www.wikidata.org/entity/Q1036', 'http://www.wikidata.org/entity/Q1037', 'http://www.wikidata.org/entity/Q103801', 'http://www.wikidata.org/entity/Q10389', 'http://www.wikidata.org/entity/Q1039', 'http://www.wikidata.org/entity/Q103906065', 'http://www.wikidata.org/entity/Q1039186', 'http://www.wikidata.org/entity/Q103967772', 'http://www.wikidata.org/entity/Q103967940', 'http://www.wikidata.org/entity/Q104028', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q10416611', 'http://www.wikidata.org/entity/Q104178238', 'http://www.wikidata.org/entity/Q104178581', 'http://www.wikidata.org/entity/Q104178598', 'http://www.wikidata.org/entity/Q104192511', 'http://www.wikidata.org/entity/Q104192518', 'http://www.wikidata.org/entity/Q1042', 'http://www.wikidata.org/entity/Q104231', 'http://www.wikidata.org/entity/Q104285', 'http://www.wikidata.org/entity/Q104309', 'http://www.wikidata.org/entity/Q10436544', 'http://www.wikidata.org/entity/Q1044', 'http://www.wikidata.org/entity/Q104434355', 'http://www.wikidata.org/entity/Q1044536', 'http://www.wikidata.org/entity/Q104471321', 'http://www.wikidata.org/entity/Q104472514', 'http://www.wikidata.org/entity/Q1045', 'http://www.wikidata.org/entity/Q104520', 'http://www.wikidata.org/entity/Q1045322', 'http://www.wikidata.org/entity/Q10463', 'http://www.wikidata.org/entity/Q104766296', 'http://www.wikidata.org/entity/Q104813213', 'http://www.wikidata.org/entity/Q1048340', 'http://www.wikidata.org/entity/Q104863335', 'http://www.wikidata.org/entity/Q1048918', 'http://www.wikidata.org/entity/Q1049', 'http://www.wikidata.org/entity/Q104916586', 'http://www.wikidata.org/entity/Q1050', 'http://www.wikidata.org/entity/Q1050859', 'http://www.wikidata.org/entity/Q105092', 'http://www.wikidata.org/entity/Q105098', 'http://www.wikidata.org/entity/Q1052040', 'http://www.wikidata.org/entity/Q105206', 'http://www.wikidata.org/entity/Q1052867', 'http://www.wikidata.org/entity/Q105295', 'http://www.wikidata.org/entity/Q105313', 'http://www.wikidata.org/entity/Q10531418', 'http://www.wikidata.org/entity/Q1054184', 'http://www.wikidata.org/entity/Q1054580', 'http://www.wikidata.org/entity/Q1054746', 'http://www.wikidata.org/entity/Q10549052', 'http://www.wikidata.org/entity/Q1054910', 'http://www.wikidata.org/entity/Q1054923', 'http://www.wikidata.org/entity/Q1055', 'http://www.wikidata.org/entity/Q10555398', 'http://www.wikidata.org/entity/Q105567983', 'http://www.wikidata.org/entity/Q105568320', 'http://www.wikidata.org/entity/Q1055713', 'http://www.wikidata.org/entity/Q105633625', 'http://www.wikidata.org/entity/Q105633777', 'http://www.wikidata.org/entity/Q105699357', 'http://www.wikidata.org/entity/Q1057542', 'http://www.wikidata.org/entity/Q1059551', 'http://www.wikidata.org/entity/Q1059707', 'http://www.wikidata.org/entity/Q1060072', 'http://www.wikidata.org/entity/Q1061', 'http://www.wikidata.org/entity/Q106143110', 'http://www.wikidata.org/entity/Q1061488', 'http://www.wikidata.org/entity/Q10615930', 'http://www.wikidata.org/entity/Q1062546', 'http://www.wikidata.org/entity/Q106281', 'http://www.wikidata.org/entity/Q1062946', 'http://www.wikidata.org/entity/Q1063498', 'http://www.wikidata.org/entity/Q106395898', 'http://www.wikidata.org/entity/Q106396892', 'http://www.wikidata.org/entity/Q106396961', 'http://www.wikidata.org/entity/Q1064825', 'http://www.wikidata.org/entity/Q1065', 'http://www.wikidata.org/entity/Q1065073', 'http://www.wikidata.org/entity/Q1065299', 'http://www.wikidata.org/entity/Q106540698', 'http://www.wikidata.org/entity/Q106576497', 'http://www.wikidata.org/entity/Q106577', 'http://www.wikidata.org/entity/Q106698080', 'http://www.wikidata.org/entity/Q106789', 'http://www.wikidata.org/entity/Q106955', 'http://www.wikidata.org/entity/Q1069609', 'http://www.wikidata.org/entity/Q106963081', 'http://www.wikidata.org/entity/Q1069829', 'http://www.wikidata.org/entity/Q1069868', 'http://www.wikidata.org/entity/Q1069959', 'http://www.wikidata.org/entity/Q1070529', 'http://www.wikidata.org/entity/Q107103741', 'http://www.wikidata.org/entity/Q1071142', 'http://www.wikidata.org/entity/Q10711424', 'http://www.wikidata.org/entity/Q107121906', 'http://www.wikidata.org/entity/Q107122476', 'http://www.wikidata.org/entity/Q107122539', 'http://www.wikidata.org/entity/Q107122657', 'http://www.wikidata.org/entity/Q1071439', 'http://www.wikidata.org/entity/Q1071661', 'http://www.wikidata.org/entity/Q107171994', 'http://www.wikidata.org/entity/Q1072012', 'http://www.wikidata.org/entity/Q1072140', 'http://www.wikidata.org/entity/Q107217674', 'http://www.wikidata.org/entity/Q1072282', 'http://www.wikidata.org/entity/Q107230986', 'http://www.wikidata.org/entity/Q1072362', 'http://www.wikidata.org/entity/Q107258515', 'http://www.wikidata.org/entity/Q10726489', 'http://www.wikidata.org/entity/Q1072949', 'http://www.wikidata.org/entity/Q107297366', 'http://www.wikidata.org/entity/Q107299', 'http://www.wikidata.org/entity/Q1073388', 'http://www.wikidata.org/entity/Q107352630', 'http://www.wikidata.org/entity/Q107356467', 'http://www.wikidata.org/entity/Q107368497', 'http://www.wikidata.org/entity/Q107380', 'http://www.wikidata.org/entity/Q1074138', 'http://www.wikidata.org/entity/Q10749897', 'http://www.wikidata.org/entity/Q107616938', 'http://www.wikidata.org/entity/Q1077538', 'http://www.wikidata.org/entity/Q1077630', 'http://www.wikidata.org/entity/Q1078062', 'http://www.wikidata.org/entity/Q1078602', 'http://www.wikidata.org/entity/Q10791211', 'http://www.wikidata.org/entity/Q10800791', 'http://www.wikidata.org/entity/Q1081620', 'http://www.wikidata.org/entity/Q10827839', 'http://www.wikidata.org/entity/Q10828323', 'http://www.wikidata.org/entity/Q108330094', 'http://www.wikidata.org/entity/Q10841085', 'http://www.wikidata.org/entity/Q10841128', 'http://www.wikidata.org/entity/Q108451820', 'http://www.wikidata.org/entity/Q108527339', 'http://www.wikidata.org/entity/Q108566477', 'http://www.wikidata.org/entity/Q10857476', 'http://www.wikidata.org/entity/Q10860602', 'http://www.wikidata.org/entity/Q10861987', 'http://www.wikidata.org/entity/Q10885162', 'http://www.wikidata.org/entity/Q108865218', 'http://www.wikidata.org/entity/Q108865226', 'http://www.wikidata.org/entity/Q10888424', 'http://www.wikidata.org/entity/Q10889269', 'http://www.wikidata.org/entity/Q109057', 'http://www.wikidata.org/entity/Q1091034', 'http://www.wikidata.org/entity/Q10914393', 'http://www.wikidata.org/entity/Q1091663', 'http://www.wikidata.org/entity/Q1092758', 'http://www.wikidata.org/entity/Q1092770', 'http://www.wikidata.org/entity/Q10928369', 'http://www.wikidata.org/entity/Q1093572', 'http://www.wikidata.org/entity/Q10940250', 'http://www.wikidata.org/entity/Q1094194', 'http://www.wikidata.org/entity/Q10957559', 'http://www.wikidata.org/entity/Q109607', 'http://www.wikidata.org/entity/Q10971', 'http://www.wikidata.org/entity/Q10975458', 'http://www.wikidata.org/entity/Q1097943', 'http://www.wikidata.org/entity/Q109853245', 'http://www.wikidata.org/entity/Q10988528', 'http://www.wikidata.org/entity/Q110133597', 'http://www.wikidata.org/entity/Q1102030', 'http://www.wikidata.org/entity/Q11024667', 'http://www.wikidata.org/entity/Q110262017', 'http://www.wikidata.org/entity/Q110295172', 'http://www.wikidata.org/entity/Q11029653', 'http://www.wikidata.org/entity/Q110362913', 'http://www.wikidata.org/entity/Q110464831', 'http://www.wikidata.org/entity/Q1105411', 'http://www.wikidata.org/entity/Q110634999', 'http://www.wikidata.org/entity/Q1107789', 'http://www.wikidata.org/entity/Q1108445', 'http://www.wikidata.org/entity/Q110874607', 'http://www.wikidata.org/entity/Q11088223', 'http://www.wikidata.org/entity/Q110888', 'http://www.wikidata.org/entity/Q110904219', 'http://www.wikidata.org/entity/Q11091481', 'http://www.wikidata.org/entity/Q1109279', 'http://www.wikidata.org/entity/Q110985411', 'http://www.wikidata.org/entity/Q1110', 'http://www.wikidata.org/entity/Q11103925', 'http://www.wikidata.org/entity/Q11106449', 'http://www.wikidata.org/entity/Q111269932', 'http://www.wikidata.org/entity/Q111274070', 'http://www.wikidata.org/entity/Q111428979', 'http://www.wikidata.org/entity/Q111437164', 'http://www.wikidata.org/entity/Q111471', 'http://www.wikidata.org/entity/Q1115291', 'http://www.wikidata.org/entity/Q111623106', 'http://www.wikidata.org/entity/Q111628725', 'http://www.wikidata.org/entity/Q111673946', 'http://www.wikidata.org/entity/Q11175560', 'http://www.wikidata.org/entity/Q11177699', 'http://www.wikidata.org/entity/Q111785499', 'http://www.wikidata.org/entity/Q11178782', 'http://www.wikidata.org/entity/Q11179744', 'http://www.wikidata.org/entity/Q11180184', 'http://www.wikidata.org/entity/Q111805383', 'http://www.wikidata.org/entity/Q111822288', 'http://www.wikidata.org/entity/Q111830494', 'http://www.wikidata.org/entity/Q111848623', 'http://www.wikidata.org/entity/Q11194', 'http://www.wikidata.org/entity/Q11196', 'http://www.wikidata.org/entity/Q111960008', 'http://www.wikidata.org/entity/Q11198', 'http://www.wikidata.org/entity/Q112099', 'http://www.wikidata.org/entity/Q112117355', 'http://www.wikidata.org/entity/Q11214098', 'http://www.wikidata.org/entity/Q1121436', 'http://www.wikidata.org/entity/Q1121819', 'http://www.wikidata.org/entity/Q1122052', 'http://www.wikidata.org/entity/Q11225429', 'http://www.wikidata.org/entity/Q1122980', 'http://www.wikidata.org/entity/Q1123960', 'http://www.wikidata.org/entity/Q112571764', 'http://www.wikidata.org/entity/Q112623501', 'http://www.wikidata.org/entity/Q112660052', 'http://www.wikidata.org/entity/Q1126678', 'http://www.wikidata.org/entity/Q11275466', 'http://www.wikidata.org/entity/Q11285099', 'http://www.wikidata.org/entity/Q1129036', 'http://www.wikidata.org/entity/Q112934', 'http://www.wikidata.org/entity/Q1129493', 'http://www.wikidata.org/entity/Q11297604', 'http://www.wikidata.org/entity/Q11299497', 'http://www.wikidata.org/entity/Q1131500', 'http://www.wikidata.org/entity/Q113253410', 'http://www.wikidata.org/entity/Q1134180', 'http://www.wikidata.org/entity/Q11344632', 'http://www.wikidata.org/entity/Q113490712', 'http://www.wikidata.org/entity/Q1135255', 'http://www.wikidata.org/entity/Q1136188', 'http://www.wikidata.org/entity/Q113673', 'http://www.wikidata.org/entity/Q113674418', 'http://www.wikidata.org/entity/Q1138904', 'http://www.wikidata.org/entity/Q1139807', 'http://www.wikidata.org/entity/Q114', 'http://www.wikidata.org/entity/Q1140152', 'http://www.wikidata.org/entity/Q1140829', 'http://www.wikidata.org/entity/Q1141215', 'http://www.wikidata.org/entity/Q1141295', 'http://www.wikidata.org/entity/Q1141471', 'http://www.wikidata.org/entity/Q1142', 'http://www.wikidata.org/entity/Q1142179', 'http://www.wikidata.org/entity/Q11424', 'http://www.wikidata.org/entity/Q1143126', 'http://www.wikidata.org/entity/Q1143164', 'http://www.wikidata.org/entity/Q114318324', 'http://www.wikidata.org/entity/Q114318415', 'http://www.wikidata.org/entity/Q1143233', 'http://www.wikidata.org/entity/Q114327408', 'http://www.wikidata.org/entity/Q114334914', 'http://www.wikidata.org/entity/Q114347595', 'http://www.wikidata.org/entity/Q1143524', 'http://www.wikidata.org/entity/Q114354473', 'http://www.wikidata.org/entity/Q1144305', 'http://www.wikidata.org/entity/Q1145059', 'http://www.wikidata.org/entity/Q1145416', 'http://www.wikidata.org/entity/Q1145470', 'http://www.wikidata.org/entity/Q1146786', 'http://www.wikidata.org/entity/Q1147037', 'http://www.wikidata.org/entity/Q1147043', 'http://www.wikidata.org/entity/Q1147441', 'http://www.wikidata.org/entity/Q114771354', 'http://www.wikidata.org/entity/Q1147897', 'http://www.wikidata.org/entity/Q1148042', 'http://www.wikidata.org/entity/Q1148125', 'http://www.wikidata.org/entity/Q1148907', 'http://www.wikidata.org/entity/Q1148929', 'http://www.wikidata.org/entity/Q1149081', 'http://www.wikidata.org/entity/Q1149098', 'http://www.wikidata.org/entity/Q1149230', 'http://www.wikidata.org/entity/Q115', 'http://www.wikidata.org/entity/Q115007', 'http://www.wikidata.org/entity/Q1150344', 'http://www.wikidata.org/entity/Q1151241', 'http://www.wikidata.org/entity/Q1151943', 'http://www.wikidata.org/entity/Q1151968', 'http://www.wikidata.org/entity/Q115203670', 'http://www.wikidata.org/entity/Q1152126', 'http://www.wikidata.org/entity/Q1152445', 'http://www.wikidata.org/entity/Q115308377', 'http://www.wikidata.org/entity/Q115367777', 'http://www.wikidata.org/entity/Q115395247', 'http://www.wikidata.org/entity/Q1154406', 'http://www.wikidata.org/entity/Q1154540', 'http://www.wikidata.org/entity/Q1154556', 'http://www.wikidata.org/entity/Q1155101', 'http://www.wikidata.org/entity/Q1155700', 'http://www.wikidata.org/entity/Q115596078', 'http://www.wikidata.org/entity/Q1156248', 'http://www.wikidata.org/entity/Q1157215', 'http://www.wikidata.org/entity/Q115862177', 'http://www.wikidata.org/entity/Q1159', 'http://www.wikidata.org/entity/Q115933987', 'http://www.wikidata.org/entity/Q115939834', 'http://www.wikidata.org/entity/Q116027062', 'http://www.wikidata.org/entity/Q116080', 'http://www.wikidata.org/entity/Q11608382', 'http://www.wikidata.org/entity/Q1161521', 'http://www.wikidata.org/entity/Q116158418', 'http://www.wikidata.org/entity/Q1161616', 'http://www.wikidata.org/entity/Q116238', 'http://www.wikidata.org/entity/Q116250004', 'http://www.wikidata.org/entity/Q116251951', 'http://www.wikidata.org/entity/Q116262040', 'http://www.wikidata.org/entity/Q116262110', 'http://www.wikidata.org/entity/Q116262380', 'http://www.wikidata.org/entity/Q116262495', 'http://www.wikidata.org/entity/Q116262564', 'http://www.wikidata.org/entity/Q116262984', 'http://www.wikidata.org/entity/Q116264004', 'http://www.wikidata.org/entity/Q116294355', 'http://www.wikidata.org/entity/Q11634225', 'http://www.wikidata.org/entity/Q1163552', 'http://www.wikidata.org/entity/Q1164', 'http://www.wikidata.org/entity/Q1164500', 'http://www.wikidata.org/entity/Q116478189', 'http://www.wikidata.org/entity/Q1165', 'http://www.wikidata.org/entity/Q1165546', 'http://www.wikidata.org/entity/Q1166', 'http://www.wikidata.org/entity/Q116807138', 'http://www.wikidata.org/entity/Q1168578', 'http://www.wikidata.org/entity/Q11688796', 'http://www.wikidata.org/entity/Q116896904', 'http://www.wikidata.org/entity/Q116921199', 'http://www.wikidata.org/entity/Q11694484', 'http://www.wikidata.org/entity/Q11696012', 'http://www.wikidata.org/entity/Q117', 'http://www.wikidata.org/entity/Q117011417', 'http://www.wikidata.org/entity/Q11703', 'http://www.wikidata.org/entity/Q11708', 'http://www.wikidata.org/entity/Q1171', 'http://www.wikidata.org/entity/Q11710624', 'http://www.wikidata.org/entity/Q11733281', 'http://www.wikidata.org/entity/Q1174', 'http://www.wikidata.org/entity/Q11744447', 'http://www.wikidata.org/entity/Q117462228', 'http://www.wikidata.org/entity/Q11750526', 'http://www.wikidata.org/entity/Q11750538', 'http://www.wikidata.org/entity/Q11755466', 'http://www.wikidata.org/entity/Q11764451', 'http://www.wikidata.org/entity/Q11766300', 'http://www.wikidata.org/entity/Q11767', 'http://www.wikidata.org/entity/Q11768', 'http://www.wikidata.org/entity/Q117714', 'http://www.wikidata.org/entity/Q11772', 'http://www.wikidata.org/entity/Q11774', 'http://www.wikidata.org/entity/Q11777696', 'http://www.wikidata.org/entity/Q11789749', 'http://www.wikidata.org/entity/Q11790332', 'http://www.wikidata.org/entity/Q11792255', 'http://www.wikidata.org/entity/Q1180', 'http://www.wikidata.org/entity/Q11805', 'http://www.wikidata.org/entity/Q11812551', 'http://www.wikidata.org/entity/Q1183', 'http://www.wikidata.org/entity/Q1183407', 'http://www.wikidata.org/entity/Q118350', 'http://www.wikidata.org/entity/Q1184', 'http://www.wikidata.org/entity/Q11844865', 'http://www.wikidata.org/entity/Q1185', 'http://www.wikidata.org/entity/Q118592557', 'http://www.wikidata.org/entity/Q118594040', 'http://www.wikidata.org/entity/Q1186', 'http://www.wikidata.org/entity/Q11876909', 'http://www.wikidata.org/entity/Q1187978', 'http://www.wikidata.org/entity/Q1188', 'http://www.wikidata.org/entity/Q1188046', 'http://www.wikidata.org/entity/Q1188222', 'http://www.wikidata.org/entity/Q118834995', 'http://www.wikidata.org/entity/Q1188459', 'http://www.wikidata.org/entity/Q118995', 'http://www.wikidata.org/entity/Q1190582', 'http://www.wikidata.org/entity/Q1191', 'http://www.wikidata.org/entity/Q11911', 'http://www.wikidata.org/entity/Q1191125', 'http://www.wikidata.org/entity/Q11913408', 'http://www.wikidata.org/entity/Q11916644', 'http://www.wikidata.org/entity/Q1191986', 'http://www.wikidata.org/entity/Q1192067', 'http://www.wikidata.org/entity/Q11920950', 'http://www.wikidata.org/entity/Q11925', 'http://www.wikidata.org/entity/Q1192701', 'http://www.wikidata.org/entity/Q11929', 'http://www.wikidata.org/entity/Q1192936', 'http://www.wikidata.org/entity/Q11933', 'http://www.wikidata.org/entity/Q1193806', 'http://www.wikidata.org/entity/Q1193822', 'http://www.wikidata.org/entity/Q1193879', 'http://www.wikidata.org/entity/Q1194', 'http://www.wikidata.org/entity/Q11940', 'http://www.wikidata.org/entity/Q1195', 'http://www.wikidata.org/entity/Q11953081', 'http://www.wikidata.org/entity/Q11959', 'http://www.wikidata.org/entity/Q1196', 'http://www.wikidata.org/entity/Q1196201', 'http://www.wikidata.org/entity/Q1197', 'http://www.wikidata.org/entity/Q11972', 'http://www.wikidata.org/entity/Q1198', 'http://www.wikidata.org/entity/Q1198071', 'http://www.wikidata.org/entity/Q1198163', 'http://www.wikidata.org/entity/Q1199', 'http://www.wikidata.org/entity/Q1199327', 'http://www.wikidata.org/entity/Q1200', 'http://www.wikidata.org/entity/Q1201', 'http://www.wikidata.org/entity/Q1201477', 'http://www.wikidata.org/entity/Q1202', 'http://www.wikidata.org/entity/Q1203967', 'http://www.wikidata.org/entity/Q1204', 'http://www.wikidata.org/entity/Q1205', 'http://www.wikidata.org/entity/Q12053604', 'http://www.wikidata.org/entity/Q12054842', 'http://www.wikidata.org/entity/Q12059960', 'http://www.wikidata.org/entity/Q1206', 'http://www.wikidata.org/entity/Q1206012', 'http://www.wikidata.org/entity/Q12060804', 'http://www.wikidata.org/entity/Q12060881', 'http://www.wikidata.org/entity/Q120616440', 'http://www.wikidata.org/entity/Q120628936', 'http://www.wikidata.org/entity/Q120629151', 'http://www.wikidata.org/entity/Q1206293', 'http://www.wikidata.org/entity/Q120652386', 'http://www.wikidata.org/entity/Q120658877', 'http://www.wikidata.org/entity/Q120730', 'http://www.wikidata.org/entity/Q1208', 'http://www.wikidata.org/entity/Q1209', 'http://www.wikidata.org/entity/Q1209822', 'http://www.wikidata.org/entity/Q1210', 'http://www.wikidata.org/entity/Q1211919', 'http://www.wikidata.org/entity/Q1212', 'http://www.wikidata.org/entity/Q12121', 'http://www.wikidata.org/entity/Q121358981', 'http://www.wikidata.org/entity/Q121378', 'http://www.wikidata.org/entity/Q121405150', 'http://www.wikidata.org/entity/Q12141429', 'http://www.wikidata.org/entity/Q121437220', 'http://www.wikidata.org/entity/Q12150341', 'http://www.wikidata.org/entity/Q1216', 'http://www.wikidata.org/entity/Q12163800', 'http://www.wikidata.org/entity/Q12172', 'http://www.wikidata.org/entity/Q1218', 'http://www.wikidata.org/entity/Q12183875', 'http://www.wikidata.org/entity/Q121932', 'http://www.wikidata.org/entity/Q1221', 'http://www.wikidata.org/entity/Q122131', 'http://www.wikidata.org/entity/Q12229205', 'http://www.wikidata.org/entity/Q1223', 'http://www.wikidata.org/entity/Q122443', 'http://www.wikidata.org/entity/Q1224630', 'http://www.wikidata.org/entity/Q1226918', 'http://www.wikidata.org/entity/Q1227', 'http://www.wikidata.org/entity/Q1227125', 'http://www.wikidata.org/entity/Q122790477', 'http://www.wikidata.org/entity/Q1229422', 'http://www.wikidata.org/entity/Q1229919', 'http://www.wikidata.org/entity/Q123027565', 'http://www.wikidata.org/entity/Q1231', 'http://www.wikidata.org/entity/Q1231403', 'http://www.wikidata.org/entity/Q123173313', 'http://www.wikidata.org/entity/Q123196', 'http://www.wikidata.org/entity/Q1232392', 'http://www.wikidata.org/entity/Q1232459', 'http://www.wikidata.org/entity/Q1232509', 'http://www.wikidata.org/entity/Q1232887', 'http://www.wikidata.org/entity/Q1232988', 'http://www.wikidata.org/entity/Q123352982', 'http://www.wikidata.org/entity/Q1233672', 'http://www.wikidata.org/entity/Q123378592', 'http://www.wikidata.org/entity/Q123421221', 'http://www.wikidata.org/entity/Q123431669', 'http://www.wikidata.org/entity/Q123432106', 'http://www.wikidata.org/entity/Q123552', 'http://www.wikidata.org/entity/Q12355425', 'http://www.wikidata.org/entity/Q123559', 'http://www.wikidata.org/entity/Q123566422', 'http://www.wikidata.org/entity/Q1235720', 'http://www.wikidata.org/entity/Q1235737', 'http://www.wikidata.org/entity/Q123576003', 'http://www.wikidata.org/entity/Q123759', 'http://www.wikidata.org/entity/Q124003554', 'http://www.wikidata.org/entity/Q1240096', 'http://www.wikidata.org/entity/Q12404132', 'http://www.wikidata.org/entity/Q12406729', 'http://www.wikidata.org/entity/Q12407080', 'http://www.wikidata.org/entity/Q1241847', 'http://www.wikidata.org/entity/Q124254507', 'http://www.wikidata.org/entity/Q1243', 'http://www.wikidata.org/entity/Q124304839', 'http://www.wikidata.org/entity/Q124305333', 'http://www.wikidata.org/entity/Q124316878', 'http://www.wikidata.org/entity/Q124434121', 'http://www.wikidata.org/entity/Q1244742', 'http://www.wikidata.org/entity/Q1246', 'http://www.wikidata.org/entity/Q124611346', 'http://www.wikidata.org/entity/Q1246837', 'http://www.wikidata.org/entity/Q1247020', 'http://www.wikidata.org/entity/Q1247159', 'http://www.wikidata.org/entity/Q124738742', 'http://www.wikidata.org/entity/Q12482871', 'http://www.wikidata.org/entity/Q124839943', 'http://www.wikidata.org/entity/Q124883406', 'http://www.wikidata.org/entity/Q12490507', 'http://www.wikidata.org/entity/Q1249230', 'http://www.wikidata.org/entity/Q124943', 'http://www.wikidata.org/entity/Q1250763', 'http://www.wikidata.org/entity/Q125304691', 'http://www.wikidata.org/entity/Q12536', 'http://www.wikidata.org/entity/Q12544', 'http://www.wikidata.org/entity/Q12548', 'http://www.wikidata.org/entity/Q1255', 'http://www.wikidata.org/entity/Q12552451', 'http://www.wikidata.org/entity/Q12557', 'http://www.wikidata.org/entity/Q12557054', 'http://www.wikidata.org/entity/Q1256', 'http://www.wikidata.org/entity/Q12560', 'http://www.wikidata.org/entity/Q125675829', 'http://www.wikidata.org/entity/Q125695582', 'http://www.wikidata.org/entity/Q125761', 'http://www.wikidata.org/entity/Q12585', 'http://www.wikidata.org/entity/Q12602', 'http://www.wikidata.org/entity/Q126084', 'http://www.wikidata.org/entity/Q1261', 'http://www.wikidata.org/entity/Q126125', 'http://www.wikidata.org/entity/Q1261908', 'http://www.wikidata.org/entity/Q12622719', 'http://www.wikidata.org/entity/Q126285302', 'http://www.wikidata.org/entity/Q1263', 'http://www.wikidata.org/entity/Q126368057', 'http://www.wikidata.org/entity/Q12641662', 'http://www.wikidata.org/entity/Q12642600', 'http://www.wikidata.org/entity/Q1264808', 'http://www.wikidata.org/entity/Q12649101', 'http://www.wikidata.org/entity/Q12661', 'http://www.wikidata.org/entity/Q126685015', 'http://www.wikidata.org/entity/Q126936', 'http://www.wikidata.org/entity/Q127176487', 'http://www.wikidata.org/entity/Q12724', 'http://www.wikidata.org/entity/Q1273', 'http://www.wikidata.org/entity/Q12738', 'http://www.wikidata.org/entity/Q127416773', 'http://www.wikidata.org/entity/Q1274468', 'http://www.wikidata.org/entity/Q12746', 'http://www.wikidata.org/entity/Q127513', 'http://www.wikidata.org/entity/Q12766653', 'http://www.wikidata.org/entity/Q12771', 'http://www.wikidata.org/entity/Q127755434', 'http://www.wikidata.org/entity/Q1277557', 'http://www.wikidata.org/entity/Q127765950', 'http://www.wikidata.org/entity/Q127773699', 'http://www.wikidata.org/entity/Q127773997', 'http://www.wikidata.org/entity/Q127775357', 'http://www.wikidata.org/entity/Q127861', 'http://www.wikidata.org/entity/Q12793', 'http://www.wikidata.org/entity/Q1280', 'http://www.wikidata.org/entity/Q12817455', 'http://www.wikidata.org/entity/Q12824780', 'http://www.wikidata.org/entity/Q128323', 'http://www.wikidata.org/entity/Q12837', 'http://www.wikidata.org/entity/Q128446394', 'http://www.wikidata.org/entity/Q1286', 'http://www.wikidata.org/entity/Q1286223', 'http://www.wikidata.org/entity/Q12864290', 'http://www.wikidata.org/entity/Q128791354', 'http://www.wikidata.org/entity/Q128904', 'http://www.wikidata.org/entity/Q128938', 'http://www.wikidata.org/entity/Q12898802', 'http://www.wikidata.org/entity/Q129003', 'http://www.wikidata.org/entity/Q1290149', 'http://www.wikidata.org/entity/Q129237', 'http://www.wikidata.org/entity/Q129286', 'http://www.wikidata.org/entity/Q1292987', 'http://www.wikidata.org/entity/Q129352', 'http://www.wikidata.org/entity/Q129469586', 'http://www.wikidata.org/entity/Q12950808', 'http://www.wikidata.org/entity/Q1297', 'http://www.wikidata.org/entity/Q1297894', 'http://www.wikidata.org/entity/Q12979830', 'http://www.wikidata.org/entity/Q12982818', 'http://www.wikidata.org/entity/Q1301901', 'http://www.wikidata.org/entity/Q130216', 'http://www.wikidata.org/entity/Q130229', 'http://www.wikidata.org/entity/Q130251145', 'http://www.wikidata.org/entity/Q130276', 'http://www.wikidata.org/entity/Q130280', 'http://www.wikidata.org/entity/Q130280283', 'http://www.wikidata.org/entity/Q130281346', 'http://www.wikidata.org/entity/Q13031709', 'http://www.wikidata.org/entity/Q130340667', 'http://www.wikidata.org/entity/Q130405068', 'http://www.wikidata.org/entity/Q130463380', 'http://www.wikidata.org/entity/Q130536585', 'http://www.wikidata.org/entity/Q130626', 'http://www.wikidata.org/entity/Q130654', 'http://www.wikidata.org/entity/Q13072974', 'http://www.wikidata.org/entity/Q130842', 'http://www.wikidata.org/entity/Q130978', 'http://www.wikidata.org/entity/Q13099569', 'http://www.wikidata.org/entity/Q13107370', 'http://www.wikidata.org/entity/Q131083', 'http://www.wikidata.org/entity/Q1311219', 'http://www.wikidata.org/entity/Q13116', 'http://www.wikidata.org/entity/Q1311704', 'http://www.wikidata.org/entity/Q131198', 'http://www.wikidata.org/entity/Q1311990', 'http://www.wikidata.org/entity/Q131301', 'http://www.wikidata.org/entity/Q131320', 'http://www.wikidata.org/entity/Q131337', 'http://www.wikidata.org/entity/Q13134285', 'http://www.wikidata.org/entity/Q13134747', 'http://www.wikidata.org/entity/Q13140400', 'http://www.wikidata.org/entity/Q13140547', 'http://www.wikidata.org/entity/Q131434', 'http://www.wikidata.org/entity/Q13160', 'http://www.wikidata.org/entity/Q1317579', 'http://www.wikidata.org/entity/Q1317991', 'http://www.wikidata.org/entity/Q131802', 'http://www.wikidata.org/entity/Q131886', 'http://www.wikidata.org/entity/Q1319348', 'http://www.wikidata.org/entity/Q13194779', 'http://www.wikidata.org/entity/Q131964', 'http://www.wikidata.org/entity/Q132', 'http://www.wikidata.org/entity/Q1320053', 'http://www.wikidata.org/entity/Q1320058', 'http://www.wikidata.org/entity/Q1321', 'http://www.wikidata.org/entity/Q1321824', 'http://www.wikidata.org/entity/Q1322181', 'http://www.wikidata.org/entity/Q132241', 'http://www.wikidata.org/entity/Q1322562', 'http://www.wikidata.org/entity/Q1322662', 'http://www.wikidata.org/entity/Q132272', 'http://www.wikidata.org/entity/Q1324889', 'http://www.wikidata.org/entity/Q132646', 'http://www.wikidata.org/entity/Q132659', 'http://www.wikidata.org/entity/Q1326742', 'http://www.wikidata.org/entity/Q1328546', 'http://www.wikidata.org/entity/Q132856', 'http://www.wikidata.org/entity/Q132931', 'http://www.wikidata.org/entity/Q13300', 'http://www.wikidata.org/entity/Q1330290', 'http://www.wikidata.org/entity/Q1330965', 'http://www.wikidata.org/entity/Q133132', 'http://www.wikidata.org/entity/Q133356', 'http://www.wikidata.org/entity/Q1334322', 'http://www.wikidata.org/entity/Q133442', 'http://www.wikidata.org/entity/Q1335260', 'http://www.wikidata.org/entity/Q133529', 'http://www.wikidata.org/entity/Q13353', 'http://www.wikidata.org/entity/Q13373', 'http://www.wikidata.org/entity/Q1337854', 'http://www.wikidata.org/entity/Q13389', 'http://www.wikidata.org/entity/Q13405524', 'http://www.wikidata.org/entity/Q13406463', 'http://www.wikidata.org/entity/Q13410267', 'http://www.wikidata.org/entity/Q13411057', 'http://www.wikidata.org/entity/Q13411328', 'http://www.wikidata.org/entity/Q13415123', 'http://www.wikidata.org/entity/Q13417403', 'http://www.wikidata.org/entity/Q134178', 'http://www.wikidata.org/entity/Q13422906', 'http://www.wikidata.org/entity/Q13426199', 'http://www.wikidata.org/entity/Q13427044', 'http://www.wikidata.org/entity/Q13433', 'http://www.wikidata.org/entity/Q1343485', 'http://www.wikidata.org/entity/Q1345964', 'http://www.wikidata.org/entity/Q13474305', 'http://www.wikidata.org/entity/Q134907', 'http://www.wikidata.org/entity/Q135028', 'http://www.wikidata.org/entity/Q1352', 'http://www.wikidata.org/entity/Q1352878', 'http://www.wikidata.org/entity/Q13533316', 'http://www.wikidata.org/entity/Q13533353', 'http://www.wikidata.org/entity/Q13534654', 'http://www.wikidata.org/entity/Q1354', 'http://www.wikidata.org/entity/Q1354899', 'http://www.wikidata.org/entity/Q1355', 'http://www.wikidata.org/entity/Q1356', 'http://www.wikidata.org/entity/Q1356549', 'http://www.wikidata.org/entity/Q13590051', 'http://www.wikidata.org/entity/Q1361', 'http://www.wikidata.org/entity/Q1361989', 'http://www.wikidata.org/entity/Q1363688', 'http://www.wikidata.org/entity/Q1364478', 'http://www.wikidata.org/entity/Q1365493', 'http://www.wikidata.org/entity/Q1366757', 'http://www.wikidata.org/entity/Q1368026', 'http://www.wikidata.org/entity/Q1368792', 'http://www.wikidata.org/entity/Q136884', 'http://www.wikidata.org/entity/Q1370', 'http://www.wikidata.org/entity/Q137014', 'http://www.wikidata.org/entity/Q13703', 'http://www.wikidata.org/entity/Q1370527', 'http://www.wikidata.org/entity/Q13706', 'http://www.wikidata.org/entity/Q1371', 'http://www.wikidata.org/entity/Q13780930', 'http://www.wikidata.org/entity/Q137816', 'http://www.wikidata.org/entity/Q1378225', 'http://www.wikidata.org/entity/Q1378584', 'http://www.wikidata.org/entity/Q1381504', 'http://www.wikidata.org/entity/Q13816636', 'http://www.wikidata.org/entity/Q1384', 'http://www.wikidata.org/entity/Q1387', 'http://www.wikidata.org/entity/Q138837', 'http://www.wikidata.org/entity/Q13895', 'http://www.wikidata.org/entity/Q1391', 'http://www.wikidata.org/entity/Q1392840', 'http://www.wikidata.org/entity/Q1393', 'http://www.wikidata.org/entity/Q139315', 'http://www.wikidata.org/entity/Q139319', 'http://w</t>
         </is>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
+          <t>What is the largest country in the world?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+          <t>['http://www.wikidata.org/entity/Q124003554']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+          <t>['http://www.wikidata.org/entity/Q159']</t>
         </is>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Who created Family Guy?</t>
+          <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q188492']</t>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q154804']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q188492']</t>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
         </is>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Who created Batman?</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
-        </is>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>how big is the total area of North Rhine- Westphalia?</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>['34112.5']</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/statement/Q1198-266a91c3-4fe5-5533-d3e4-7b68b0fbcfcd']</t>
-        </is>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>To which countries does the Himalayan mountain system extend?</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
-        </is>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>What is the largest country in the world?</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q124003554']</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q159']</t>
-        </is>
-      </c>
-      <c r="D38" t="b">
         <v>0</v>
       </c>
     </row>
